--- a/TaskList_Team4.xlsx
+++ b/TaskList_Team4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StateStreetHyperMarketProject\Team4_Interns2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_StateStreetProject\Team4_Interns2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>S.No</t>
   </si>
@@ -123,13 +123,58 @@
   </si>
   <si>
     <t>Updating Customer Details</t>
+  </si>
+  <si>
+    <t>Location DropDown List generating duplicate location names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alerts : </t>
+  </si>
+  <si>
+    <t>2)SignIn Page( Given alerts for OTP Sent,Successfully SignIn)</t>
+  </si>
+  <si>
+    <t>3)SignUp Page(Given alerts for OTP Sent,OTP Invalid,Use Already existed,Successfully SignUp).</t>
+  </si>
+  <si>
+    <t>4) MyBusiness Page (when we click update button,Given alert as Updated Successfully,it will update the data in database. )</t>
+  </si>
+  <si>
+    <t>OTP Should be visible only after getting  otp and after that email field should be disable.Change OTP button as Edit Mail,When we Click on Edit mail the OTP field should be hidden and email should be editable.</t>
+  </si>
+  <si>
+    <t>5) MyOrder Page (Given Alert as No Orders when we donot have any orders to display)</t>
+  </si>
+  <si>
+    <t>Successfully Alert when product gets deleted)</t>
+  </si>
+  <si>
+    <t>6) MyPayment Page(Given Alert as Payment failed when payment is failed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) MyProduct Page (Given alert as No Product when products doesnot exist,and Deleted </t>
+  </si>
+  <si>
+    <t>8)Offers Page(Given Alert as No Offers when no products are available).</t>
+  </si>
+  <si>
+    <t>1) Add Product(Given alert for Product added Successfully ,Image uploaded)</t>
+  </si>
+  <si>
+    <t>Need to change Naming Conventions of class names of div tag in all Pages</t>
+  </si>
+  <si>
+    <t>Karan,Sushma</t>
+  </si>
+  <si>
+    <t>Fixing  Alignment in Sign Up and Sign In Pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +189,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,9 +230,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,16 +555,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
@@ -515,7 +588,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -529,14 +602,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -606,14 +679,14 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -627,14 +700,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -722,6 +795,126 @@
       </c>
       <c r="D16" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList_Team4.xlsx
+++ b/TaskList_Team4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>S.No</t>
   </si>
@@ -168,6 +168,27 @@
   </si>
   <si>
     <t>Fixing  Alignment in Sign Up and Sign In Pages</t>
+  </si>
+  <si>
+    <t>In List Your Business Page ,need to change image upload button.</t>
+  </si>
+  <si>
+    <t>when using credits in payment page ,it does not updating in myprofile page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heading Spelling Mistake in Offers Page, (background Color should be change)</t>
+  </si>
+  <si>
+    <t>When sign in into MyBusiness page ,it does not navigating to the next page.</t>
+  </si>
+  <si>
+    <t>Sign Up button alignment ,OTP Should be visible only after getting  otp and after that email field should be disable in SignUp ,Sign In Page</t>
+  </si>
+  <si>
+    <t>Location dropdown still showing duplicate Locations.(overrided someone's db)</t>
+  </si>
+  <si>
+    <t>Atharva,Supraja</t>
   </si>
 </sst>
 </file>
@@ -198,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +238,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -241,6 +268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,14 +672,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -672,7 +700,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -682,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -915,6 +943,59 @@
       </c>
       <c r="D33" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList_Team4.xlsx
+++ b/TaskList_Team4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>S.No</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Role Authoring - Backend</t>
   </si>
   <si>
-    <t>Activity Logging - UI ,Backend</t>
-  </si>
-  <si>
     <t>Karan,Abhya</t>
   </si>
   <si>
@@ -170,25 +167,40 @@
     <t>Fixing  Alignment in Sign Up and Sign In Pages</t>
   </si>
   <si>
-    <t>In List Your Business Page ,need to change image upload button.</t>
-  </si>
-  <si>
     <t>when using credits in payment page ,it does not updating in myprofile page.</t>
   </si>
   <si>
     <t xml:space="preserve"> Heading Spelling Mistake in Offers Page, (background Color should be change)</t>
   </si>
   <si>
-    <t>When sign in into MyBusiness page ,it does not navigating to the next page.</t>
-  </si>
-  <si>
-    <t>Sign Up button alignment ,OTP Should be visible only after getting  otp and after that email field should be disable in SignUp ,Sign In Page</t>
-  </si>
-  <si>
-    <t>Location dropdown still showing duplicate Locations.(overrided someone's db)</t>
-  </si>
-  <si>
     <t>Atharva,Supraja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Logging - UI </t>
+  </si>
+  <si>
+    <t>Products - images,dynamic logic,DB Modifications</t>
+  </si>
+  <si>
+    <t>Authentication and Authorization for all pages.</t>
+  </si>
+  <si>
+    <t>Remove horizontal scroll bar from footer</t>
+  </si>
+  <si>
+    <t>Code Refactoring</t>
+  </si>
+  <si>
+    <t>In List Your Business Page and Add Product Page ,need to change image upload button.</t>
+  </si>
+  <si>
+    <t>Eventhough we are business user,My BusinessPage is showing Sign In form(Need to change)</t>
+  </si>
+  <si>
+    <t>karan</t>
+  </si>
+  <si>
+    <t>Fixing UI For MyPayment Page</t>
   </si>
 </sst>
 </file>
@@ -219,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -257,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -269,6 +287,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,16 +602,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
@@ -644,28 +663,28 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -690,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -710,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,7 +761,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -770,11 +789,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -802,13 +821,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,13 +835,27 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -849,13 +882,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -863,21 +896,21 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -888,47 +921,47 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,7 +988,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,23 +999,29 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>50</v>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,7 +1029,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,7 +1040,29 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList_Team4.xlsx
+++ b/TaskList_Team4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>S.No</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Fixing UI For MyPayment Page</t>
+  </si>
+  <si>
+    <t>When we were give invalid referral code in Sign Up page, it throwing an unhandled error and not able to signup</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,6 +1068,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TaskList_Team4.xlsx
+++ b/TaskList_Team4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_StateStreetProject\Team4_Interns2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectStateStreet\Team4_Interns2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>S.No</t>
   </si>
@@ -204,6 +204,60 @@
   </si>
   <si>
     <t>When we were give invalid referral code in Sign Up page, it throwing an unhandled error and not able to signup</t>
+  </si>
+  <si>
+    <t>Duplicate Locations in Drop down List,when we click delhi the dropdown list is resizing to delhi size then when we click drop down button then remaining location places are not visible completely</t>
+  </si>
+  <si>
+    <t>while navigating to any other page the footer part is visible initial (neet to change)</t>
+  </si>
+  <si>
+    <t>In SignUp Page while clicking Get OTP buttton ,OTP form covering the footer part</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>Pending :</t>
+  </si>
+  <si>
+    <t>When we sign up without referral code, the data is not storing in database but alert showing successful signup when we sign in, it showing user not found as data not store in database. But for user, it is not mandatory to give referral code.</t>
+  </si>
+  <si>
+    <t>Update functionality(MyProfile,MyBusiness)</t>
+  </si>
+  <si>
+    <t>MyOrders - to show products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Offers Page, (background Color should be change)</t>
   </si>
 </sst>
 </file>
@@ -234,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +319,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,11 +334,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -291,6 +371,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,14 +952,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -895,14 +980,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -942,7 +1027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
@@ -1006,7 +1091,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="8">
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1078,6 +1163,150 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskList_Team4.xlsx
+++ b/TaskList_Team4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectStateStreet\Team4_Interns2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_State_Street\Team4_Interns2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>S.No</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Alerts</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>ListMyBusiness(To List the Business)</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>karan</t>
   </si>
   <si>
-    <t>Fixing UI For MyPayment Page</t>
-  </si>
-  <si>
     <t>When we were give invalid referral code in Sign Up page, it throwing an unhandled error and not able to signup</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
     <t>3)</t>
   </si>
   <si>
-    <t>4)</t>
-  </si>
-  <si>
     <t>5)</t>
   </si>
   <si>
@@ -242,22 +233,25 @@
     <t>9)</t>
   </si>
   <si>
-    <t>10)</t>
-  </si>
-  <si>
     <t>Pending :</t>
   </si>
   <si>
-    <t>When we sign up without referral code, the data is not storing in database but alert showing successful signup when we sign in, it showing user not found as data not store in database. But for user, it is not mandatory to give referral code.</t>
-  </si>
-  <si>
     <t>Update functionality(MyProfile,MyBusiness)</t>
   </si>
   <si>
     <t>MyOrders - to show products</t>
   </si>
   <si>
-    <t xml:space="preserve"> In Offers Page, (background Color should be change)</t>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>storing product details in database</t>
+  </si>
+  <si>
+    <t>Competed</t>
+  </si>
+  <si>
+    <t>UI of Product Details Page</t>
   </si>
 </sst>
 </file>
@@ -371,11 +365,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,13 +763,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,21 +783,21 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,10 +808,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,41 +833,41 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,7 +875,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -891,17 +885,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,13 +903,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,13 +917,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,13 +931,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,24 +950,24 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -984,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -998,58 +992,58 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,18 +1081,24 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="12">
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,10 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,10 +1120,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,10 +1134,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,26 +1148,24 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,11 +1177,14 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="7">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,7 +1192,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1190,122 +1203,124 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>71</v>
+      <c r="A54" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList_Team4.xlsx
+++ b/TaskList_Team4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>S.No</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Adding  OTP in SignIn Form</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Role Authoring - Backend</t>
   </si>
   <si>
-    <t>Karan,Abhya</t>
-  </si>
-  <si>
     <t>Product Details terms and conditions</t>
   </si>
   <si>
@@ -167,15 +161,9 @@
     <t>when using credits in payment page ,it does not updating in myprofile page.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Heading Spelling Mistake in Offers Page, (background Color should be change)</t>
-  </si>
-  <si>
     <t>Atharva,Supraja</t>
   </si>
   <si>
-    <t xml:space="preserve">Activity Logging - UI </t>
-  </si>
-  <si>
     <t>Products - images,dynamic logic,DB Modifications</t>
   </si>
   <si>
@@ -248,10 +236,13 @@
     <t>storing product details in database</t>
   </si>
   <si>
-    <t>Competed</t>
-  </si>
-  <si>
     <t>UI of Product Details Page</t>
+  </si>
+  <si>
+    <t>app bar color should be changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Have Spelling Mistake(heading) in Offers Page, (background Color should be change)</t>
   </si>
 </sst>
 </file>
@@ -369,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -755,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,13 +754,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,13 +796,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,13 +824,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,13 +838,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,13 +852,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -889,13 +880,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -903,42 +894,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
+      <c r="A17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -946,39 +926,39 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="10">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="11">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="11">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -988,62 +968,62 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="11">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,13 +1031,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,21 +1050,24 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="9">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1092,13 +1075,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,13 +1089,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,10 +1117,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -1148,10 +1131,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1159,13 +1142,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,10 +1175,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1203,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,46 +1197,46 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -1261,65 +1244,84 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TaskList_Team4.xlsx
+++ b/TaskList_Team4.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_State_Street\Team4_Interns2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\Team4_Interns2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F98AC3-7747-45A9-9C32-DA2D89D11BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
   <si>
     <t>S.No</t>
   </si>
@@ -221,12 +211,6 @@
     <t>9)</t>
   </si>
   <si>
-    <t>Pending :</t>
-  </si>
-  <si>
-    <t>Update functionality(MyProfile,MyBusiness)</t>
-  </si>
-  <si>
     <t>MyOrders - to show products</t>
   </si>
   <si>
@@ -243,12 +227,126 @@
   </si>
   <si>
     <t xml:space="preserve"> Have Spelling Mistake(heading) in Offers Page, (background Color should be change)</t>
+  </si>
+  <si>
+    <t>Combining OTP and SignUp forms in one page</t>
+  </si>
+  <si>
+    <t>Combining OTP and SignIn forms in one page</t>
+  </si>
+  <si>
+    <t>Adding try and catch blocks</t>
+  </si>
+  <si>
+    <t>Redesigning UI of footer and Nave Bar</t>
+  </si>
+  <si>
+    <t>When a person Sign's Up using Referral code of other user then both of them will get rewards</t>
+  </si>
+  <si>
+    <t>Can mention terms and comditions while adding a product</t>
+  </si>
+  <si>
+    <t>Added Alerts where ever we want to mention the action of the user to him</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleared Unhandled Exception </t>
+  </si>
+  <si>
+    <t>Designed a UI for role authoring</t>
+  </si>
+  <si>
+    <t>Added User Orders in MyOrders</t>
+  </si>
+  <si>
+    <t>Updating Customer Details in My Profile Page</t>
+  </si>
+  <si>
+    <t>Testing Entire Website</t>
+  </si>
+  <si>
+    <t>Added option to add products and store it in db</t>
+  </si>
+  <si>
+    <t>Signin and SignUp Button Alignment</t>
+  </si>
+  <si>
+    <t>Filter Products according to Location</t>
+  </si>
+  <si>
+    <t>Enabling OTP after providing SignIn and SignUp details</t>
+  </si>
+  <si>
+    <t>User Friendly Alerts</t>
+  </si>
+  <si>
+    <t>CSS naming conventions</t>
+  </si>
+  <si>
+    <t>User can view a page if he is a authorized user</t>
+  </si>
+  <si>
+    <t>Related Spell</t>
+  </si>
+  <si>
+    <t>Eble to see My Business Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neat Upload Button </t>
+  </si>
+  <si>
+    <t>Credits are Updating In My Profile Page</t>
+  </si>
+  <si>
+    <t>Removed The Horizontal scroll Bar</t>
+  </si>
+  <si>
+    <t>Removed Unused and commented code</t>
+  </si>
+  <si>
+    <t>It will not throw any error even if the referral code is invalid</t>
+  </si>
+  <si>
+    <t>Alignment is done for OTP form in SignUp page</t>
+  </si>
+  <si>
+    <t>Footer will not be show at first</t>
+  </si>
+  <si>
+    <t>Deleted Mulitipule Locations in db</t>
+  </si>
+  <si>
+    <t>Business person can add product details, terms and conditions while adding the product</t>
+  </si>
+  <si>
+    <t>MyOrders page will show the items ordered by User</t>
+  </si>
+  <si>
+    <t>Authoring the roles of the user</t>
+  </si>
+  <si>
+    <t>Added Business and Products in all locations and all categories</t>
+  </si>
+  <si>
+    <t>Designed a New UI for showing Product details</t>
+  </si>
+  <si>
+    <t>Changed the color of the app bar back</t>
+  </si>
+  <si>
+    <t>Update functionality(MyProfile)</t>
+  </si>
+  <si>
+    <t>Updating User Details My Profile</t>
+  </si>
+  <si>
+    <t>Cleared Unhandled Exception and able to add products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,11 +454,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,23 +772,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="79.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="79.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -720,8 +818,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -734,8 +835,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -748,8 +852,11 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -762,8 +869,11 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -776,8 +886,11 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -790,8 +903,11 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -804,8 +920,11 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -818,8 +937,11 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -832,8 +954,11 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -846,8 +971,11 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -860,8 +988,11 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -874,8 +1005,11 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -888,8 +1022,11 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -902,8 +1039,11 @@
       <c r="D15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -916,17 +1056,20 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44272</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>1</v>
       </c>
       <c r="B19" t="s">
@@ -938,9 +1081,12 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="E19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>2</v>
       </c>
       <c r="B20" t="s">
@@ -952,9 +1098,12 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="E20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -966,9 +1115,12 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="E21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -980,53 +1132,56 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1039,13 +1194,16 @@
       <c r="D33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>44638</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1053,38 +1211,47 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1092,13 +1259,16 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1106,13 +1276,16 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1120,13 +1293,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1136,8 +1312,11 @@
       <c r="D44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1145,21 +1324,24 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>44639</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -1167,10 +1349,13 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1178,10 +1363,13 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1189,18 +1377,21 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1208,27 +1399,33 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1236,93 +1433,114 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="E60" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="E61" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>44641</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
